--- a/tappi.xlsx
+++ b/tappi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\dr capra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -832,13 +832,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -968,6 +971,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B18">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tappi.xlsx
+++ b/tappi.xlsx
@@ -832,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -987,6 +987,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tappi.xlsx
+++ b/tappi.xlsx
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,6 +995,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tappi.xlsx
+++ b/tappi.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="tappi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -851,156 +851,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45839</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45840</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45841</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f t="shared" ref="C4:C21" si="0">C3+B4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45842</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45843</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45844</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45845</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45846</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45847</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45848</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45849</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45850</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45851</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45852</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45853</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45877</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45894</v>
       </c>
       <c r="B18">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45897</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f>C18+B19</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45901</v>
       </c>
       <c r="B20">
         <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/tappi.xlsx
+++ b/tappi.xlsx
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C21" si="0">C3+B4</f>
+        <f t="shared" ref="C4:C20" si="0">C3+B4</f>
         <v>16</v>
       </c>
     </row>
@@ -1087,6 +1087,17 @@
       </c>
       <c r="C21">
         <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
